--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248146.538182735</v>
+        <v>1243830.540078743</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21939500.90033928</v>
+        <v>21939500.9003393</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7083200.671458118</v>
+        <v>7083200.67145812</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.02334477986256</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>0.4192906078700456</v>
       </c>
       <c r="E2" t="n">
         <v>9.146429456440488</v>
@@ -740,20 +740,20 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="D3" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="U3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="D4" t="n">
-        <v>9.146429456440488</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096118</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -974,17 +974,17 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="E6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>9.146429456440488</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>9.146429456440488</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.056175065232777</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1232,7 +1232,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>9.146429456440488</v>
       </c>
       <c r="T9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>9.146429456440488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="U10" t="n">
-        <v>9.146429456440488</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>56.3034521071194</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>131.9336944565817</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>7.702923265929838</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.40227130842213</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.37904988423619</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U13" t="n">
         <v>279.9215922535905</v>
       </c>
       <c r="V13" t="n">
-        <v>12.13648948646132</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>317.0313776261723</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.6464627786044</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.8580049901195</v>
+        <v>104.8580049901196</v>
       </c>
       <c r="H15" t="n">
         <v>59.78106160549724</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.1938633459013</v>
       </c>
       <c r="I16" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.0085450628485</v>
+        <v>60.11916521573298</v>
       </c>
       <c r="T16" t="n">
         <v>233.3483097829142</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.38876277537361</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>396.2748755981718</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>261.2017196943474</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>161.2704562057073</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.6873688583576</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>169.0085450628485</v>
@@ -2058,10 +2058,10 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U19" t="n">
-        <v>18.39122762983653</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>140.346515228547</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I20" t="n">
         <v>8.951593617165784</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.08490409715799</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>28.46437008662399</v>
       </c>
       <c r="I22" t="n">
         <v>88.40227130842214</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U22" t="n">
         <v>279.9215922535905</v>
@@ -2301,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>222.3277306051523</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,19 +2320,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>45.13056508465286</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.934635333658</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T25" t="n">
         <v>233.3483097829142</v>
@@ -2535,13 +2535,13 @@
         <v>279.9215922535905</v>
       </c>
       <c r="V25" t="n">
-        <v>184.3291229039732</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>203.3716934589342</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,25 +2557,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>139.4037596599573</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>108.1913473660331</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2730,7 +2730,7 @@
         <v>164.6873688583576</v>
       </c>
       <c r="H28" t="n">
-        <v>140.1938633459013</v>
+        <v>5.086885631146398</v>
       </c>
       <c r="I28" t="n">
         <v>88.40227130842214</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9215922535905</v>
@@ -2775,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>99.40505398322269</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>240.3838083680606</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.33920451471874</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>88.30191250457553</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>88.40227130842214</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>169.0085450628485</v>
@@ -3009,13 +3009,13 @@
         <v>279.9215922535905</v>
       </c>
       <c r="V31" t="n">
-        <v>201.5433965302475</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.8426182431733</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3040,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6557434633873</v>
+        <v>251.0963797525309</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,7 +3204,7 @@
         <v>164.6873688583576</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S34" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T34" t="n">
-        <v>222.1080390147285</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>243.8762496738434</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>254.3310661988683</v>
       </c>
       <c r="V35" t="n">
-        <v>126.7575885797832</v>
+        <v>124.7947560927898</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>8.686776203977068</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T37" t="n">
         <v>233.3483097829142</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>66.78077864393133</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>262.0009540619459</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H38" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>66.10973470954396</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3681,7 +3681,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>169.0085450628485</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.53854106322471</v>
+        <v>103.0888218413737</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3745,10 +3745,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>243.0584645307278</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.9217377021041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G42" t="n">
         <v>104.8580049901195</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>122.9151367538047</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>49.67678332249024</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>279.9215922535905</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>390.4750357057775</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>327.6698213449129</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6873688583576</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.7936101052028</v>
+        <v>121.0046358615634</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4309,7 @@
         <v>30.40494220167654</v>
       </c>
       <c r="C2" t="n">
-        <v>24.32075555535072</v>
+        <v>24.32075555535073</v>
       </c>
       <c r="D2" t="n">
         <v>23.89722968881533</v>
@@ -4330,7 +4330,7 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
-        <v>9.420822340133704</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K2" t="n">
         <v>18.47578750200979</v>
@@ -4345,13 +4345,13 @@
         <v>18.47578750200979</v>
       </c>
       <c r="O2" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="P2" t="n">
         <v>27.53075266388587</v>
       </c>
-      <c r="P2" t="n">
-        <v>36.58571782576195</v>
-      </c>
       <c r="Q2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="C3" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G3" t="n">
         <v>0.7317143565152391</v>
@@ -4421,10 +4421,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="N3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="O3" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="P3" t="n">
         <v>18.47578750200979</v>
@@ -4436,25 +4436,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T3" t="n">
-        <v>18.10808256022561</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="U3" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="V3" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W3" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X3" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="C4" t="n">
-        <v>27.34690019299378</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="D4" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E4" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F4" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G4" t="n">
         <v>0.7317143565152391</v>
@@ -4491,19 +4491,19 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K4" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L4" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="N4" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="P4" t="n">
         <v>36.58571782576195</v>
@@ -4549,13 +4549,13 @@
         <v>24.32075555535073</v>
       </c>
       <c r="D5" t="n">
-        <v>23.89722968881534</v>
+        <v>23.89722968881533</v>
       </c>
       <c r="E5" t="n">
-        <v>14.65841205604717</v>
+        <v>14.65841205604716</v>
       </c>
       <c r="F5" t="n">
-        <v>5.419594423278994</v>
+        <v>5.419594423278988</v>
       </c>
       <c r="G5" t="n">
         <v>0.7317143565152391</v>
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K5" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O5" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="P5" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C6" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="D6" t="n">
         <v>19.20934962205158</v>
       </c>
       <c r="E6" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F6" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G6" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H6" t="n">
         <v>9.97053198928341</v>
@@ -4661,37 +4661,37 @@
         <v>18.84164468026741</v>
       </c>
       <c r="O6" t="n">
-        <v>18.84164468026741</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="P6" t="n">
-        <v>18.84164468026741</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.89660984214349</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R6" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="S6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.44816725481975</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C7" t="n">
         <v>9.97053198928341</v>
@@ -4710,10 +4710,10 @@
         <v>9.97053198928341</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G7" t="n">
         <v>0.7317143565152391</v>
@@ -4725,22 +4725,22 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M7" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N7" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="O7" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="P7" t="n">
         <v>27.53075266388587</v>
@@ -4752,25 +4752,25 @@
         <v>27.34690019299378</v>
       </c>
       <c r="S7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="T7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="U7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="V7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="W7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="X7" t="n">
+        <v>27.34690019299378</v>
+      </c>
+      <c r="Y7" t="n">
         <v>19.20934962205158</v>
-      </c>
-      <c r="T7" t="n">
-        <v>19.20934962205158</v>
-      </c>
-      <c r="U7" t="n">
-        <v>19.20934962205158</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.97053198928341</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J8" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K8" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L8" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M8" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N8" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="O8" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="P8" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="Q8" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="R8" t="n">
         <v>36.58571782576195</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.97053198928341</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="I9" t="n">
         <v>0.7317143565152391</v>
@@ -4892,10 +4892,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="M9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N9" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O9" t="n">
         <v>18.47578750200979</v>
@@ -4913,22 +4913,22 @@
         <v>27.34690019299378</v>
       </c>
       <c r="T9" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U9" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V9" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W9" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X9" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="C10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="D10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I10" t="n">
         <v>0.7317143565152391</v>
@@ -4968,16 +4968,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M10" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N10" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P10" t="n">
         <v>36.58571782576195</v>
@@ -4989,25 +4989,25 @@
         <v>27.34690019299378</v>
       </c>
       <c r="S10" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="T10" t="n">
-        <v>27.34690019299378</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="U10" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="V10" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="W10" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="X10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1629.949234207638</v>
+        <v>459.7784570822165</v>
       </c>
       <c r="C11" t="n">
-        <v>1629.949234207638</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.077060362063</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.73684487896</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="F11" t="n">
-        <v>737.7064328326474</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="G11" t="n">
-        <v>330.9834596373066</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H11" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I11" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J11" t="n">
-        <v>461.6086357968591</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K11" t="n">
-        <v>623.370524869483</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L11" t="n">
-        <v>838.995665781229</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M11" t="n">
-        <v>1091.74630372715</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N11" t="n">
-        <v>1350.45530363112</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O11" t="n">
-        <v>1589.346095311689</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P11" t="n">
-        <v>1779.260953729377</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q11" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R11" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S11" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T11" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="U11" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="V11" t="n">
-        <v>2030.592632038686</v>
+        <v>1377.741789035909</v>
       </c>
       <c r="W11" t="n">
-        <v>2030.592632038686</v>
+        <v>993.9814881710777</v>
       </c>
       <c r="X11" t="n">
-        <v>1629.949234207638</v>
+        <v>860.7151301341264</v>
       </c>
       <c r="Y11" t="n">
-        <v>1629.949234207638</v>
+        <v>459.7784570822165</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J12" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3166958868891</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0909086340301</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M12" t="n">
-        <v>829.5497972865683</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.973326467949</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O12" t="n">
-        <v>1710.545002897524</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P12" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q12" t="n">
         <v>1935.742629235509</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1093.99787493146</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="C13" t="n">
-        <v>922.9045024931763</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="D13" t="n">
-        <v>763.4098578160863</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="E13" t="n">
-        <v>602.4990426844057</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="F13" t="n">
-        <v>437.867916794997</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="G13" t="n">
-        <v>271.5170391602923</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="H13" t="n">
         <v>129.9070761846345</v>
@@ -5199,52 +5199,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J13" t="n">
-        <v>117.0244497926567</v>
+        <v>52.02308616132028</v>
       </c>
       <c r="K13" t="n">
-        <v>374.0041929967609</v>
+        <v>102.7226357797103</v>
       </c>
       <c r="L13" t="n">
-        <v>764.9731205687183</v>
+        <v>493.6915633516677</v>
       </c>
       <c r="M13" t="n">
-        <v>1192.434041262249</v>
+        <v>921.1524840451984</v>
       </c>
       <c r="N13" t="n">
-        <v>1276.149373915194</v>
+        <v>1336.902118145729</v>
       </c>
       <c r="O13" t="n">
-        <v>1578.938985181068</v>
+        <v>1721.074735977058</v>
       </c>
       <c r="P13" t="n">
-        <v>1891.241525240598</v>
+        <v>2017.515485446435</v>
       </c>
       <c r="Q13" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S13" t="n">
-        <v>1815.04960683961</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.04960683961</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U13" t="n">
-        <v>1532.300523755176</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.041443465821</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.041443465821</v>
+        <v>788.467073901877</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.697581325504</v>
+        <v>550.1232117615605</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.697581325504</v>
+        <v>325.3875131503252</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1573.077060362063</v>
+        <v>780.0121718561279</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.077060362063</v>
+        <v>369.887581169398</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.077060362063</v>
+        <v>369.887581169398</v>
       </c>
       <c r="E14" t="n">
-        <v>1158.73684487896</v>
+        <v>369.887581169398</v>
       </c>
       <c r="F14" t="n">
-        <v>737.7064328326474</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="G14" t="n">
-        <v>330.9834596373066</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H14" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I14" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J14" t="n">
-        <v>134.83280890913</v>
+        <v>461.6086357968591</v>
       </c>
       <c r="K14" t="n">
-        <v>296.5946979817538</v>
+        <v>714.573651518765</v>
       </c>
       <c r="L14" t="n">
-        <v>512.2198388934999</v>
+        <v>930.1987924305109</v>
       </c>
       <c r="M14" t="n">
-        <v>764.9704768394209</v>
+        <v>1182.949430376432</v>
       </c>
       <c r="N14" t="n">
-        <v>1062.194940952516</v>
+        <v>1441.658430280402</v>
       </c>
       <c r="O14" t="n">
-        <v>1301.085732633085</v>
+        <v>1680.549221960971</v>
       </c>
       <c r="P14" t="n">
-        <v>1491.000591050773</v>
+        <v>1870.464080378659</v>
       </c>
       <c r="Q14" t="n">
         <v>1993.572267480348</v>
@@ -5305,25 +5305,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T14" t="n">
-        <v>1817.164396502068</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="U14" t="n">
-        <v>1817.164396502068</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="V14" t="n">
-        <v>1573.077060362063</v>
+        <v>1591.170024572527</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.077060362063</v>
+        <v>1591.170024572527</v>
       </c>
       <c r="X14" t="n">
-        <v>1573.077060362063</v>
+        <v>1591.170024572527</v>
       </c>
       <c r="Y14" t="n">
-        <v>1573.077060362063</v>
+        <v>1190.233351520617</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>687.2588649679232</v>
       </c>
       <c r="C15" t="n">
-        <v>553.2637937168689</v>
+        <v>553.2637937168688</v>
       </c>
       <c r="D15" t="n">
         <v>436.3666359362612</v>
@@ -5357,25 +5357,25 @@
         <v>56.48202817919477</v>
       </c>
       <c r="J15" t="n">
-        <v>348.6465602115093</v>
+        <v>104.978156236876</v>
       </c>
       <c r="K15" t="n">
-        <v>632.7154851811164</v>
+        <v>219.518467450677</v>
       </c>
       <c r="L15" t="n">
-        <v>805.4896979282573</v>
+        <v>392.292680197818</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.948586580795</v>
+        <v>601.7515688503561</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.52026301037</v>
+        <v>1104.323245279931</v>
       </c>
       <c r="O15" t="n">
-        <v>1710.545002897524</v>
+        <v>1297.347985167085</v>
       </c>
       <c r="P15" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q15" t="n">
         <v>1935.742629235509</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.4098578160863</v>
+        <v>673.7206478634855</v>
       </c>
       <c r="C16" t="n">
-        <v>763.4098578160863</v>
+        <v>502.6272754252021</v>
       </c>
       <c r="D16" t="n">
-        <v>763.4098578160863</v>
+        <v>343.1326307481121</v>
       </c>
       <c r="E16" t="n">
-        <v>602.4990426844057</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="F16" t="n">
-        <v>437.867916794997</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="G16" t="n">
-        <v>271.5170391602923</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="H16" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I16" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J16" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K16" t="n">
-        <v>309.0028293654245</v>
+        <v>167.7239994110467</v>
       </c>
       <c r="L16" t="n">
-        <v>696.5221620699629</v>
+        <v>558.6929269830041</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0167332492081</v>
+        <v>986.153847676535</v>
       </c>
       <c r="N16" t="n">
-        <v>1194.766367349738</v>
+        <v>1401.903481777065</v>
       </c>
       <c r="O16" t="n">
-        <v>1578.938985181068</v>
+        <v>1786.076099608395</v>
       </c>
       <c r="P16" t="n">
         <v>1891.241525240598</v>
@@ -5460,28 +5460,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.04960683961</v>
+        <v>1969.866202527844</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.344243422525</v>
+        <v>1734.160839110759</v>
       </c>
       <c r="U16" t="n">
-        <v>1579.344243422525</v>
+        <v>1451.411756026325</v>
       </c>
       <c r="V16" t="n">
-        <v>1305.458498362047</v>
+        <v>1177.526010965847</v>
       </c>
       <c r="W16" t="n">
-        <v>1026.388833870922</v>
+        <v>898.4563464747208</v>
       </c>
       <c r="X16" t="n">
-        <v>788.0449717306051</v>
+        <v>898.4563464747208</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.4098578160863</v>
+        <v>673.7206478634855</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1147.026098706726</v>
+        <v>1540.070906184137</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.026098706726</v>
+        <v>1129.946315497407</v>
       </c>
       <c r="D17" t="n">
-        <v>746.7484465873601</v>
+        <v>725.4823855904674</v>
       </c>
       <c r="E17" t="n">
-        <v>746.7484465873601</v>
+        <v>461.6422646870861</v>
       </c>
       <c r="F17" t="n">
-        <v>746.7484465873601</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0254733920195</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H17" t="n">
-        <v>49.65386639548662</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I17" t="n">
         <v>40.61185264077371</v>
@@ -5518,19 +5518,19 @@
         <v>461.6086357968591</v>
       </c>
       <c r="K17" t="n">
-        <v>623.3705248694829</v>
+        <v>714.573651518765</v>
       </c>
       <c r="L17" t="n">
-        <v>838.9956657812288</v>
+        <v>930.1987924305109</v>
       </c>
       <c r="M17" t="n">
-        <v>1091.74630372715</v>
+        <v>1182.949430376432</v>
       </c>
       <c r="N17" t="n">
-        <v>1350.45530363112</v>
+        <v>1441.658430280402</v>
       </c>
       <c r="O17" t="n">
-        <v>1589.346095311688</v>
+        <v>1680.549221960971</v>
       </c>
       <c r="P17" t="n">
         <v>1870.464080378659</v>
@@ -5554,13 +5554,13 @@
         <v>1941.007579236046</v>
       </c>
       <c r="W17" t="n">
-        <v>1557.247278371215</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="X17" t="n">
-        <v>1557.247278371215</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="Y17" t="n">
-        <v>1557.247278371215</v>
+        <v>1540.070906184137</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J18" t="n">
-        <v>89.10798069845492</v>
+        <v>332.7763846730882</v>
       </c>
       <c r="K18" t="n">
-        <v>203.6482919122559</v>
+        <v>447.3166958868891</v>
       </c>
       <c r="L18" t="n">
-        <v>706.2199683418306</v>
+        <v>620.0909086340301</v>
       </c>
       <c r="M18" t="n">
-        <v>915.6788569943687</v>
+        <v>829.5497972865683</v>
       </c>
       <c r="N18" t="n">
-        <v>1136.517000356042</v>
+        <v>1050.387940648242</v>
       </c>
       <c r="O18" t="n">
-        <v>1355.062805760533</v>
+        <v>1243.412680535396</v>
       </c>
       <c r="P18" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q18" t="n">
         <v>1935.742629235509</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1093.99787493146</v>
+        <v>600.7673675078327</v>
       </c>
       <c r="C19" t="n">
-        <v>922.9045024931763</v>
+        <v>437.867916794997</v>
       </c>
       <c r="D19" t="n">
-        <v>763.4098578160863</v>
+        <v>437.867916794997</v>
       </c>
       <c r="E19" t="n">
-        <v>602.4990426844057</v>
+        <v>437.867916794997</v>
       </c>
       <c r="F19" t="n">
         <v>437.867916794997</v>
@@ -5673,52 +5673,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J19" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K19" t="n">
-        <v>309.0028293654245</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L19" t="n">
-        <v>699.9717569373819</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M19" t="n">
-        <v>782.4663281166271</v>
+        <v>1192.434041262249</v>
       </c>
       <c r="N19" t="n">
-        <v>1198.215962217157</v>
+        <v>1608.183675362779</v>
       </c>
       <c r="O19" t="n">
-        <v>1578.938985181068</v>
+        <v>1966.110428860023</v>
       </c>
       <c r="P19" t="n">
-        <v>1891.241525240598</v>
+        <v>2017.515485446435</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.04960683961</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T19" t="n">
-        <v>1579.344243422525</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U19" t="n">
-        <v>1560.76724581663</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.76724581663</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.697581325504</v>
+        <v>788.467073901877</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.697581325504</v>
+        <v>788.467073901877</v>
       </c>
       <c r="Y19" t="n">
-        <v>1281.697581325504</v>
+        <v>788.467073901877</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1006.006543785668</v>
+        <v>1175.396100921435</v>
       </c>
       <c r="C20" t="n">
-        <v>595.8819530989382</v>
+        <v>1175.396100921435</v>
       </c>
       <c r="D20" t="n">
-        <v>191.4180231919987</v>
+        <v>1175.396100921435</v>
       </c>
       <c r="E20" t="n">
-        <v>191.4180231919987</v>
+        <v>761.0558854383319</v>
       </c>
       <c r="F20" t="n">
-        <v>191.4180231919987</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="G20" t="n">
-        <v>49.65386639548662</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="H20" t="n">
         <v>49.65386639548662</v>
@@ -5752,52 +5752,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J20" t="n">
-        <v>134.83280890913</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K20" t="n">
-        <v>296.5946979817538</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L20" t="n">
-        <v>512.2198388934999</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.791515323075</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N20" t="n">
-        <v>1273.500515227045</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O20" t="n">
-        <v>1512.391306907613</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P20" t="n">
-        <v>1702.306165325302</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q20" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R20" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.592632038686</v>
+        <v>1959.799799617314</v>
       </c>
       <c r="T20" t="n">
-        <v>1817.164396502068</v>
+        <v>1959.799799617314</v>
       </c>
       <c r="U20" t="n">
-        <v>1817.164396502068</v>
+        <v>1959.799799617314</v>
       </c>
       <c r="V20" t="n">
-        <v>1817.164396502068</v>
+        <v>1959.799799617314</v>
       </c>
       <c r="W20" t="n">
-        <v>1817.164396502068</v>
+        <v>1576.039498752483</v>
       </c>
       <c r="X20" t="n">
-        <v>1817.164396502068</v>
+        <v>1175.396100921435</v>
       </c>
       <c r="Y20" t="n">
-        <v>1416.227723450158</v>
+        <v>1175.396100921435</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C21" t="n">
-        <v>553.2637937168688</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D21" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E21" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F21" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G21" t="n">
-        <v>100.9967633533974</v>
+        <v>100.9967633533972</v>
       </c>
       <c r="H21" t="n">
-        <v>40.61185264077388</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I21" t="n">
         <v>40.61185264077371</v>
@@ -5834,28 +5834,28 @@
         <v>332.7763846730882</v>
       </c>
       <c r="K21" t="n">
-        <v>632.7154851811164</v>
+        <v>508.478861245244</v>
       </c>
       <c r="L21" t="n">
-        <v>805.4896979282573</v>
+        <v>681.253073992385</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.948586580795</v>
+        <v>890.7119626449232</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.52026301037</v>
+        <v>1111.550106006596</v>
       </c>
       <c r="O21" t="n">
-        <v>1710.545002897524</v>
+        <v>1304.574845893751</v>
       </c>
       <c r="P21" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q21" t="n">
         <v>1935.742629235509</v>
       </c>
       <c r="R21" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S21" t="n">
         <v>1942.531936429008</v>
@@ -5873,10 +5873,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X21" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>621.4059084316884</v>
+        <v>496.1032152340105</v>
       </c>
       <c r="C22" t="n">
-        <v>450.312535993405</v>
+        <v>325.009842795727</v>
       </c>
       <c r="D22" t="n">
-        <v>290.817891316315</v>
+        <v>325.009842795727</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9070761846345</v>
+        <v>325.009842795727</v>
       </c>
       <c r="F22" t="n">
-        <v>129.9070761846345</v>
+        <v>325.009842795727</v>
       </c>
       <c r="G22" t="n">
-        <v>129.9070761846345</v>
+        <v>158.6589651610223</v>
       </c>
       <c r="H22" t="n">
         <v>129.9070761846345</v>
@@ -5913,19 +5913,19 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K22" t="n">
-        <v>167.7239994110467</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L22" t="n">
-        <v>558.6929269830041</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M22" t="n">
-        <v>986.153847676535</v>
+        <v>1192.434041262249</v>
       </c>
       <c r="N22" t="n">
-        <v>1194.766367349738</v>
+        <v>1608.183675362779</v>
       </c>
       <c r="O22" t="n">
-        <v>1578.938985181068</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P22" t="n">
         <v>1891.241525240598</v>
@@ -5934,28 +5934,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.04960683961</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T22" t="n">
-        <v>1815.04960683961</v>
+        <v>1794.887268621601</v>
       </c>
       <c r="U22" t="n">
-        <v>1532.300523755176</v>
+        <v>1512.138185537166</v>
       </c>
       <c r="V22" t="n">
-        <v>1258.414778694698</v>
+        <v>1238.252440476688</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.841313436968</v>
+        <v>959.1827759855623</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.841313436968</v>
+        <v>720.8389138452458</v>
       </c>
       <c r="Y22" t="n">
-        <v>809.1056148257328</v>
+        <v>496.1032152340105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1658.465547441039</v>
+        <v>510.4003568878981</v>
       </c>
       <c r="C23" t="n">
-        <v>1658.465547441039</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="D23" t="n">
-        <v>1254.0016175341</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="E23" t="n">
-        <v>839.6614020509962</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="F23" t="n">
-        <v>418.6309900046838</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="G23" t="n">
-        <v>58.09095431412011</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="H23" t="n">
-        <v>58.09095431412011</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I23" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J23" t="n">
-        <v>470.0457237154926</v>
+        <v>143.2698968277634</v>
       </c>
       <c r="K23" t="n">
-        <v>631.8076127881163</v>
+        <v>305.0317859003873</v>
       </c>
       <c r="L23" t="n">
-        <v>870.8275198093015</v>
+        <v>649.5515473667487</v>
       </c>
       <c r="M23" t="n">
-        <v>1477.808159231966</v>
+        <v>1256.532186789413</v>
       </c>
       <c r="N23" t="n">
-        <v>1736.517159135936</v>
+        <v>1863.512826212077</v>
       </c>
       <c r="O23" t="n">
-        <v>1975.407950816504</v>
+        <v>2102.403617892645</v>
       </c>
       <c r="P23" t="n">
-        <v>2165.322809234193</v>
+        <v>2292.318476310334</v>
       </c>
       <c r="Q23" t="n">
-        <v>2288.430996335881</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R23" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S23" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T23" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="U23" t="n">
-        <v>2452.44702797036</v>
+        <v>2105.961908300176</v>
       </c>
       <c r="V23" t="n">
-        <v>2452.44702797036</v>
+        <v>2105.961908300176</v>
       </c>
       <c r="W23" t="n">
-        <v>2068.686727105528</v>
+        <v>1722.201607435345</v>
       </c>
       <c r="X23" t="n">
-        <v>2068.686727105528</v>
+        <v>1321.558209604297</v>
       </c>
       <c r="Y23" t="n">
-        <v>2068.686727105528</v>
+        <v>920.6215365523875</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>109.4338512720307</v>
       </c>
       <c r="H24" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I24" t="n">
-        <v>64.91911609782827</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J24" t="n">
         <v>357.0836481301427</v>
       </c>
       <c r="K24" t="n">
-        <v>964.0642875528068</v>
+        <v>488.6796794921282</v>
       </c>
       <c r="L24" t="n">
-        <v>1183.630035391774</v>
+        <v>1095.660318914792</v>
       </c>
       <c r="M24" t="n">
-        <v>1393.088924044312</v>
+        <v>1305.11920756733</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.927067405985</v>
+        <v>1525.957350929004</v>
       </c>
       <c r="O24" t="n">
-        <v>1806.951807293139</v>
+        <v>1718.982090816158</v>
       </c>
       <c r="P24" t="n">
-        <v>1954.041286585722</v>
+        <v>1866.071570108741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R24" t="n">
         <v>2039.029719957319</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>960.8249998744354</v>
+        <v>871.5297763305746</v>
       </c>
       <c r="C25" t="n">
-        <v>789.7316274361519</v>
+        <v>700.4364038922911</v>
       </c>
       <c r="D25" t="n">
-        <v>630.2369827590619</v>
+        <v>540.941759215201</v>
       </c>
       <c r="E25" t="n">
-        <v>469.3261676273813</v>
+        <v>380.0309440835206</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6950417379726</v>
+        <v>215.3998181941118</v>
       </c>
       <c r="G25" t="n">
-        <v>138.344164103268</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H25" t="n">
-        <v>138.344164103268</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I25" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J25" t="n">
         <v>125.4615377112901</v>
       </c>
       <c r="K25" t="n">
-        <v>382.4412809153944</v>
+        <v>382.4412809153943</v>
       </c>
       <c r="L25" t="n">
-        <v>773.4102084873516</v>
+        <v>773.4102084873515</v>
       </c>
       <c r="M25" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N25" t="n">
-        <v>1616.620763281413</v>
+        <v>1616.620763281412</v>
       </c>
       <c r="O25" t="n">
-        <v>2000.793381112743</v>
+        <v>2000.793381112742</v>
       </c>
       <c r="P25" t="n">
         <v>2313.095921172272</v>
@@ -6171,28 +6171,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R25" t="n">
-        <v>2407.61970485497</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S25" t="n">
-        <v>2407.61970485497</v>
+        <v>2281.731325886674</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.914341437885</v>
+        <v>2046.025962469589</v>
       </c>
       <c r="U25" t="n">
-        <v>1889.16525835345</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.974225117113</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W25" t="n">
-        <v>1423.904560625987</v>
+        <v>1283.965181335854</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.560698485671</v>
+        <v>1283.965181335854</v>
       </c>
       <c r="Y25" t="n">
-        <v>960.8249998744354</v>
+        <v>1059.229482724619</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>599.9854096905384</v>
+        <v>879.1541429925642</v>
       </c>
       <c r="C26" t="n">
-        <v>189.8608190038085</v>
+        <v>879.1541429925642</v>
       </c>
       <c r="D26" t="n">
-        <v>49.0489405594072</v>
+        <v>879.1541429925642</v>
       </c>
       <c r="E26" t="n">
-        <v>49.0489405594072</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="F26" t="n">
-        <v>49.0489405594072</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="G26" t="n">
-        <v>49.0489405594072</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="H26" t="n">
-        <v>49.0489405594072</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I26" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J26" t="n">
         <v>470.0457237154926</v>
@@ -6241,37 +6241,37 @@
         <v>1358.892391549753</v>
       </c>
       <c r="O26" t="n">
-        <v>1597.783183230322</v>
+        <v>1692.109144742192</v>
       </c>
       <c r="P26" t="n">
-        <v>1787.698041648011</v>
+        <v>1882.024003159881</v>
       </c>
       <c r="Q26" t="n">
-        <v>2288.430996335881</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R26" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S26" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T26" t="n">
-        <v>2452.44702797036</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="U26" t="n">
-        <v>2195.546961102817</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="V26" t="n">
-        <v>2195.546961102817</v>
+        <v>1799.596184967583</v>
       </c>
       <c r="W26" t="n">
-        <v>1811.786660237985</v>
+        <v>1690.311995708963</v>
       </c>
       <c r="X26" t="n">
-        <v>1411.143262406938</v>
+        <v>1690.311995708963</v>
       </c>
       <c r="Y26" t="n">
-        <v>1010.206589355028</v>
+        <v>1289.375322657054</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>109.4338512720307</v>
       </c>
       <c r="H27" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I27" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J27" t="n">
-        <v>97.5450686170884</v>
+        <v>341.2134725917217</v>
       </c>
       <c r="K27" t="n">
-        <v>212.0853798308894</v>
+        <v>516.9159491638776</v>
       </c>
       <c r="L27" t="n">
-        <v>819.0660192535535</v>
+        <v>689.6901619110185</v>
       </c>
       <c r="M27" t="n">
-        <v>1305.11920756733</v>
+        <v>899.1490505635568</v>
       </c>
       <c r="N27" t="n">
-        <v>1525.957350929004</v>
+        <v>1119.98719392523</v>
       </c>
       <c r="O27" t="n">
-        <v>1718.982090816158</v>
+        <v>1313.011933812384</v>
       </c>
       <c r="P27" t="n">
-        <v>1866.071570108741</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q27" t="n">
         <v>1944.179717154143</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1102.434962850093</v>
+        <v>965.9632681887247</v>
       </c>
       <c r="C28" t="n">
-        <v>931.3415904118096</v>
+        <v>794.8698957504412</v>
       </c>
       <c r="D28" t="n">
-        <v>771.8469457347196</v>
+        <v>635.3752510733511</v>
       </c>
       <c r="E28" t="n">
-        <v>610.9361306030391</v>
+        <v>474.4644359416706</v>
       </c>
       <c r="F28" t="n">
-        <v>446.3050047136304</v>
+        <v>309.8333100522619</v>
       </c>
       <c r="G28" t="n">
-        <v>279.9541270789258</v>
+        <v>143.4824324175572</v>
       </c>
       <c r="H28" t="n">
         <v>138.344164103268</v>
       </c>
       <c r="I28" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J28" t="n">
-        <v>125.4615377112901</v>
+        <v>125.46153771129</v>
       </c>
       <c r="K28" t="n">
-        <v>382.4412809153943</v>
+        <v>382.4412809153944</v>
       </c>
       <c r="L28" t="n">
         <v>773.4102084873517</v>
@@ -6399,7 +6399,7 @@
         <v>1616.620763281413</v>
       </c>
       <c r="O28" t="n">
-        <v>2000.793381112743</v>
+        <v>2000.793381112742</v>
       </c>
       <c r="P28" t="n">
         <v>2313.095921172272</v>
@@ -6408,28 +6408,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R28" t="n">
-        <v>2407.61970485497</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.61970485497</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.914341437885</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="U28" t="n">
-        <v>1889.16525835345</v>
+        <v>2169.697944885925</v>
       </c>
       <c r="V28" t="n">
-        <v>1615.279513292972</v>
+        <v>1895.812199825447</v>
       </c>
       <c r="W28" t="n">
-        <v>1615.279513292972</v>
+        <v>1616.742535334321</v>
       </c>
       <c r="X28" t="n">
-        <v>1514.870367855373</v>
+        <v>1378.398673194004</v>
       </c>
       <c r="Y28" t="n">
-        <v>1290.134669244138</v>
+        <v>1153.662974582769</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1277.97767663618</v>
+        <v>1005.614704438262</v>
       </c>
       <c r="C29" t="n">
-        <v>867.8530859494499</v>
+        <v>1005.614704438262</v>
       </c>
       <c r="D29" t="n">
-        <v>463.3891560425105</v>
+        <v>1005.614704438262</v>
       </c>
       <c r="E29" t="n">
-        <v>49.04894055940719</v>
+        <v>591.2744889551586</v>
       </c>
       <c r="F29" t="n">
-        <v>49.04894055940719</v>
+        <v>591.2744889551586</v>
       </c>
       <c r="G29" t="n">
-        <v>49.04894055940719</v>
+        <v>348.462561310653</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I29" t="n">
         <v>49.04894055940719</v>
       </c>
       <c r="J29" t="n">
-        <v>437.3760181512217</v>
+        <v>470.0457237154926</v>
       </c>
       <c r="K29" t="n">
-        <v>599.1379072238456</v>
+        <v>631.8076127881163</v>
       </c>
       <c r="L29" t="n">
-        <v>814.7630481355915</v>
+        <v>847.4327536998624</v>
       </c>
       <c r="M29" t="n">
-        <v>1067.513686081513</v>
+        <v>1100.183391645783</v>
       </c>
       <c r="N29" t="n">
-        <v>1326.222685985482</v>
+        <v>1707.164031068447</v>
       </c>
       <c r="O29" t="n">
-        <v>1565.113477666051</v>
+        <v>1946.054822749016</v>
       </c>
       <c r="P29" t="n">
-        <v>1755.02833608374</v>
+        <v>2135.969681166705</v>
       </c>
       <c r="Q29" t="n">
         <v>2288.430996335881</v>
@@ -6490,25 +6490,25 @@
         <v>2452.44702797036</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.973084016098</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T29" t="n">
-        <v>2438.973084016098</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="U29" t="n">
-        <v>2438.973084016098</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="V29" t="n">
-        <v>2089.135529352579</v>
+        <v>1799.596184967583</v>
       </c>
       <c r="W29" t="n">
-        <v>2089.135529352579</v>
+        <v>1415.835884102751</v>
       </c>
       <c r="X29" t="n">
-        <v>2089.135529352579</v>
+        <v>1415.835884102751</v>
       </c>
       <c r="Y29" t="n">
-        <v>1688.198856300669</v>
+        <v>1415.835884102751</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I30" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J30" t="n">
-        <v>97.54506861708839</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K30" t="n">
-        <v>704.5257080397524</v>
+        <v>604.885665640859</v>
       </c>
       <c r="L30" t="n">
-        <v>1183.630035391774</v>
+        <v>777.6598783879999</v>
       </c>
       <c r="M30" t="n">
-        <v>1393.088924044312</v>
+        <v>987.1187670405382</v>
       </c>
       <c r="N30" t="n">
-        <v>1613.927067405985</v>
+        <v>1207.956910402211</v>
       </c>
       <c r="O30" t="n">
-        <v>1806.951807293139</v>
+        <v>1400.981650289365</v>
       </c>
       <c r="P30" t="n">
-        <v>1954.041286585722</v>
+        <v>1548.071129581949</v>
       </c>
       <c r="Q30" t="n">
         <v>2032.149433631124</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1102.434962850093</v>
+        <v>559.5422026879547</v>
       </c>
       <c r="C31" t="n">
-        <v>931.3415904118096</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="D31" t="n">
-        <v>771.8469457347196</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="E31" t="n">
-        <v>610.9361306030391</v>
+        <v>227.5380151179907</v>
       </c>
       <c r="F31" t="n">
-        <v>446.3050047136304</v>
+        <v>138.344164103268</v>
       </c>
       <c r="G31" t="n">
-        <v>279.9541270789258</v>
+        <v>138.344164103268</v>
       </c>
       <c r="H31" t="n">
         <v>138.344164103268</v>
@@ -6621,19 +6621,19 @@
         <v>49.04894055940719</v>
       </c>
       <c r="J31" t="n">
-        <v>125.46153771129</v>
+        <v>125.4615377112901</v>
       </c>
       <c r="K31" t="n">
-        <v>382.4412809153944</v>
+        <v>382.4412809153943</v>
       </c>
       <c r="L31" t="n">
-        <v>773.4102084873517</v>
+        <v>773.4102084873514</v>
       </c>
       <c r="M31" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N31" t="n">
-        <v>1616.620763281413</v>
+        <v>1616.620763281412</v>
       </c>
       <c r="O31" t="n">
         <v>2000.793381112742</v>
@@ -6645,28 +6645,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R31" t="n">
-        <v>2407.619704854969</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S31" t="n">
-        <v>2236.904002771284</v>
+        <v>2281.731325886674</v>
       </c>
       <c r="T31" t="n">
-        <v>2001.198639354199</v>
+        <v>2046.025962469589</v>
       </c>
       <c r="U31" t="n">
-        <v>1718.449556269764</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V31" t="n">
-        <v>1514.870367855373</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W31" t="n">
-        <v>1514.870367855373</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.870367855373</v>
+        <v>971.9776076932344</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.134669244138</v>
+        <v>747.2419090819991</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1274.576059144791</v>
+        <v>1952.640795503231</v>
       </c>
       <c r="C32" t="n">
-        <v>1274.576059144791</v>
+        <v>1542.516204816501</v>
       </c>
       <c r="D32" t="n">
-        <v>870.1121292378511</v>
+        <v>1138.052274909561</v>
       </c>
       <c r="E32" t="n">
-        <v>455.7719137547479</v>
+        <v>723.7120594264579</v>
       </c>
       <c r="F32" t="n">
-        <v>455.7719137547479</v>
+        <v>302.6816473801455</v>
       </c>
       <c r="G32" t="n">
         <v>49.04894055940719</v>
@@ -6700,28 +6700,28 @@
         <v>49.04894055940719</v>
       </c>
       <c r="J32" t="n">
-        <v>143.2698968277634</v>
+        <v>470.0457237154926</v>
       </c>
       <c r="K32" t="n">
-        <v>305.0317859003873</v>
+        <v>719.362266445464</v>
       </c>
       <c r="L32" t="n">
-        <v>520.6569268121332</v>
+        <v>934.9874073572099</v>
       </c>
       <c r="M32" t="n">
-        <v>773.4075647580543</v>
+        <v>1187.738045303131</v>
       </c>
       <c r="N32" t="n">
-        <v>1380.388204180718</v>
+        <v>1446.447045207101</v>
       </c>
       <c r="O32" t="n">
-        <v>1975.407950816504</v>
+        <v>1685.33783688767</v>
       </c>
       <c r="P32" t="n">
-        <v>2165.322809234192</v>
+        <v>2292.318476310334</v>
       </c>
       <c r="Q32" t="n">
-        <v>2288.430996335881</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R32" t="n">
         <v>2452.44702797036</v>
@@ -6730,22 +6730,22 @@
         <v>2362.86197516772</v>
       </c>
       <c r="T32" t="n">
-        <v>2149.433739631102</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="U32" t="n">
-        <v>2149.433739631102</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="V32" t="n">
-        <v>1799.596184967583</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="W32" t="n">
-        <v>1799.596184967583</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="X32" t="n">
-        <v>1799.596184967583</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="Y32" t="n">
-        <v>1398.659511915673</v>
+        <v>2362.86197516772</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I33" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J33" t="n">
-        <v>341.2134725917217</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K33" t="n">
-        <v>516.9159491638776</v>
+        <v>471.6239593439437</v>
       </c>
       <c r="L33" t="n">
-        <v>689.6901619110185</v>
+        <v>644.3981720910847</v>
       </c>
       <c r="M33" t="n">
-        <v>899.1490505635568</v>
+        <v>853.8570607436229</v>
       </c>
       <c r="N33" t="n">
-        <v>1119.98719392523</v>
+        <v>1074.695204105296</v>
       </c>
       <c r="O33" t="n">
-        <v>1313.011933812384</v>
+        <v>1400.981650289365</v>
       </c>
       <c r="P33" t="n">
-        <v>1460.101413104967</v>
+        <v>1548.071129581949</v>
       </c>
       <c r="Q33" t="n">
-        <v>1944.179717154143</v>
+        <v>2032.149433631124</v>
       </c>
       <c r="R33" t="n">
         <v>2039.029719957319</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.6450946291425</v>
+        <v>551.1243165218041</v>
       </c>
       <c r="C34" t="n">
-        <v>682.551722190859</v>
+        <v>380.0309440835206</v>
       </c>
       <c r="D34" t="n">
-        <v>682.551722190859</v>
+        <v>380.0309440835206</v>
       </c>
       <c r="E34" t="n">
-        <v>521.6409070591784</v>
+        <v>380.0309440835206</v>
       </c>
       <c r="F34" t="n">
-        <v>357.0097811697697</v>
+        <v>215.3998181941118</v>
       </c>
       <c r="G34" t="n">
-        <v>190.658903535065</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H34" t="n">
         <v>49.04894055940719</v>
@@ -6861,19 +6861,19 @@
         <v>125.4615377112901</v>
       </c>
       <c r="K34" t="n">
-        <v>382.4412809153941</v>
+        <v>382.4412809153944</v>
       </c>
       <c r="L34" t="n">
-        <v>773.4102084873514</v>
+        <v>773.4102084873517</v>
       </c>
       <c r="M34" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N34" t="n">
-        <v>1616.620763281412</v>
+        <v>1616.620763281413</v>
       </c>
       <c r="O34" t="n">
-        <v>2000.793381112742</v>
+        <v>2000.793381112743</v>
       </c>
       <c r="P34" t="n">
         <v>2313.095921172272</v>
@@ -6882,28 +6882,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R34" t="n">
-        <v>2452.44702797036</v>
+        <v>2407.61970485497</v>
       </c>
       <c r="S34" t="n">
-        <v>2281.731325886674</v>
+        <v>2236.904002771284</v>
       </c>
       <c r="T34" t="n">
-        <v>2057.379771326343</v>
+        <v>2001.198639354199</v>
       </c>
       <c r="U34" t="n">
-        <v>2057.379771326343</v>
+        <v>1754.858993219004</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.494026265864</v>
+        <v>1480.973248158526</v>
       </c>
       <c r="W34" t="n">
-        <v>1504.424361774739</v>
+        <v>1201.9035836674</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.080499634422</v>
+        <v>963.5597215270838</v>
       </c>
       <c r="Y34" t="n">
-        <v>1041.344801023187</v>
+        <v>738.8240229158484</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>450.7364433275036</v>
+        <v>1147.831023519377</v>
       </c>
       <c r="C35" t="n">
-        <v>40.61185264077371</v>
+        <v>737.7064328326474</v>
       </c>
       <c r="D35" t="n">
-        <v>40.61185264077371</v>
+        <v>737.7064328326474</v>
       </c>
       <c r="E35" t="n">
-        <v>40.61185264077371</v>
+        <v>737.7064328326474</v>
       </c>
       <c r="F35" t="n">
-        <v>40.61185264077371</v>
+        <v>737.7064328326474</v>
       </c>
       <c r="G35" t="n">
-        <v>40.61185264077371</v>
+        <v>330.9834596373066</v>
       </c>
       <c r="H35" t="n">
         <v>40.61185264077371</v>
@@ -6937,52 +6937,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J35" t="n">
-        <v>461.6086357968591</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K35" t="n">
-        <v>623.3705248694829</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L35" t="n">
-        <v>838.9956657812288</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M35" t="n">
-        <v>1091.74630372715</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N35" t="n">
-        <v>1441.658430280402</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O35" t="n">
-        <v>1680.54922196097</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P35" t="n">
-        <v>1870.464080378659</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q35" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R35" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S35" t="n">
-        <v>2030.592632038685</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T35" t="n">
-        <v>2030.592632038685</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="U35" t="n">
-        <v>1773.692565171142</v>
+        <v>1684.107512368503</v>
       </c>
       <c r="V35" t="n">
-        <v>1645.654596908734</v>
+        <v>1558.052203183867</v>
       </c>
       <c r="W35" t="n">
-        <v>1261.894296043903</v>
+        <v>1558.052203183867</v>
       </c>
       <c r="X35" t="n">
-        <v>1261.894296043903</v>
+        <v>1558.052203183867</v>
       </c>
       <c r="Y35" t="n">
-        <v>860.957622991993</v>
+        <v>1558.052203183867</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C36" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168689</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3666359362611</v>
+        <v>436.3666359362612</v>
       </c>
       <c r="E36" t="n">
-        <v>315.8738199285891</v>
+        <v>315.8738199285892</v>
       </c>
       <c r="F36" t="n">
-        <v>206.9139401110937</v>
+        <v>206.9139401110938</v>
       </c>
       <c r="G36" t="n">
         <v>100.9967633533972</v>
@@ -7016,31 +7016,31 @@
         <v>56.48202817919477</v>
       </c>
       <c r="J36" t="n">
-        <v>104.978156236876</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K36" t="n">
-        <v>219.518467450677</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L36" t="n">
-        <v>512.376910151221</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.948586580796</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.52026301037</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O36" t="n">
-        <v>1710.545002897524</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P36" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q36" t="n">
         <v>1935.742629235509</v>
       </c>
       <c r="R36" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S36" t="n">
         <v>1942.531936429008</v>
@@ -7058,10 +7058,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X36" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.3252688090105</v>
+        <v>756.5536248584715</v>
       </c>
       <c r="C37" t="n">
-        <v>375.231896370727</v>
+        <v>756.5536248584715</v>
       </c>
       <c r="D37" t="n">
-        <v>215.737251693637</v>
+        <v>597.0589801813816</v>
       </c>
       <c r="E37" t="n">
-        <v>206.9627302754783</v>
+        <v>436.148165049701</v>
       </c>
       <c r="F37" t="n">
-        <v>206.9627302754783</v>
+        <v>271.5170391602923</v>
       </c>
       <c r="G37" t="n">
-        <v>40.61185264077371</v>
+        <v>271.5170391602923</v>
       </c>
       <c r="H37" t="n">
-        <v>40.61185264077371</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="I37" t="n">
         <v>40.61185264077371</v>
@@ -7098,49 +7098,49 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K37" t="n">
-        <v>374.0041929967609</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L37" t="n">
-        <v>764.9731205687183</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M37" t="n">
-        <v>1192.434041262249</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.841126768478</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O37" t="n">
-        <v>1578.938985181068</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P37" t="n">
         <v>1891.241525240598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.765308923295</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S37" t="n">
-        <v>1985.765308923295</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T37" t="n">
-        <v>1750.05994550621</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U37" t="n">
-        <v>1750.05994550621</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V37" t="n">
-        <v>1476.174200445732</v>
+        <v>1273.967151489914</v>
       </c>
       <c r="W37" t="n">
-        <v>1197.104535954607</v>
+        <v>994.8974869987881</v>
       </c>
       <c r="X37" t="n">
-        <v>958.7606738142902</v>
+        <v>756.5536248584715</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.0249752030549</v>
+        <v>756.5536248584715</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>752.0138716836191</v>
+        <v>1530.786399571557</v>
       </c>
       <c r="C38" t="n">
-        <v>752.0138716836191</v>
+        <v>1266.138971226157</v>
       </c>
       <c r="D38" t="n">
-        <v>752.0138716836191</v>
+        <v>861.6750413192177</v>
       </c>
       <c r="E38" t="n">
-        <v>752.0138716836191</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="F38" t="n">
-        <v>330.9834596373066</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9834596373066</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H38" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I38" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J38" t="n">
-        <v>461.6086357968591</v>
+        <v>134.83280890913</v>
       </c>
       <c r="K38" t="n">
-        <v>623.3705248694829</v>
+        <v>296.5946979817538</v>
       </c>
       <c r="L38" t="n">
-        <v>930.1987924305112</v>
+        <v>512.2198388934999</v>
       </c>
       <c r="M38" t="n">
-        <v>1182.949430376432</v>
+        <v>764.9704768394209</v>
       </c>
       <c r="N38" t="n">
-        <v>1441.658430280402</v>
+        <v>1023.679476743391</v>
       </c>
       <c r="O38" t="n">
-        <v>1680.549221960971</v>
+        <v>1262.57026842396</v>
       </c>
       <c r="P38" t="n">
-        <v>1870.464080378659</v>
+        <v>1452.485126841648</v>
       </c>
       <c r="Q38" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R38" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T38" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="U38" t="n">
-        <v>1963.815122231066</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="V38" t="n">
-        <v>1963.815122231066</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="W38" t="n">
-        <v>1963.815122231066</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="X38" t="n">
-        <v>1563.171724400018</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="Y38" t="n">
-        <v>1162.235051348109</v>
+        <v>1941.007579236046</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C39" t="n">
         <v>553.2637937168687</v>
@@ -7247,37 +7247,37 @@
         <v>100.9967633533972</v>
       </c>
       <c r="H39" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I39" t="n">
-        <v>40.61185264077372</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J39" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K39" t="n">
-        <v>363.074334501145</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L39" t="n">
-        <v>865.6460109307197</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.104899583258</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N39" t="n">
-        <v>1295.943042944931</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O39" t="n">
-        <v>1798.514719374506</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P39" t="n">
-        <v>1945.604198667089</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q39" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R39" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S39" t="n">
         <v>1942.531936429008</v>
@@ -7286,7 +7286,7 @@
         <v>1787.514757343208</v>
       </c>
       <c r="U39" t="n">
-        <v>1590.234534371425</v>
+        <v>1590.234534371424</v>
       </c>
       <c r="V39" t="n">
         <v>1376.523007364458</v>
@@ -7295,10 +7295,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X39" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>845.2080067105089</v>
+        <v>1093.99787493146</v>
       </c>
       <c r="C40" t="n">
-        <v>674.1146342722254</v>
+        <v>922.9045024931763</v>
       </c>
       <c r="D40" t="n">
-        <v>674.1146342722254</v>
+        <v>763.4098578160863</v>
       </c>
       <c r="E40" t="n">
-        <v>513.203819140545</v>
+        <v>602.4990426844057</v>
       </c>
       <c r="F40" t="n">
-        <v>348.5726932511362</v>
+        <v>437.867916794997</v>
       </c>
       <c r="G40" t="n">
-        <v>182.2218156164316</v>
+        <v>271.5170391602923</v>
       </c>
       <c r="H40" t="n">
-        <v>40.61185264077372</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="I40" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J40" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K40" t="n">
-        <v>309.0028293654245</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L40" t="n">
-        <v>477.8297727615148</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M40" t="n">
-        <v>905.2906934550456</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N40" t="n">
-        <v>1321.040327555576</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O40" t="n">
-        <v>1705.212945386906</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P40" t="n">
-        <v>2017.515485446436</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q40" t="n">
         <v>2030.592632038686</v>
@@ -7359,25 +7359,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S40" t="n">
-        <v>1859.876929955001</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T40" t="n">
-        <v>1859.876929955001</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.127846870566</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.321239735996</v>
+        <v>1520.041443465821</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.25157524487</v>
+        <v>1520.041443465821</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.907713104553</v>
+        <v>1281.697581325504</v>
       </c>
       <c r="Y40" t="n">
-        <v>1032.907713104553</v>
+        <v>1281.697581325504</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1286.107070856919</v>
+        <v>1285.272799035468</v>
       </c>
       <c r="C41" t="n">
-        <v>875.9824801701894</v>
+        <v>875.1482083487385</v>
       </c>
       <c r="D41" t="n">
-        <v>875.9824801701894</v>
+        <v>470.6842784417991</v>
       </c>
       <c r="E41" t="n">
-        <v>461.6422646870861</v>
+        <v>470.6842784417991</v>
       </c>
       <c r="F41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="G41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I41" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J41" t="n">
-        <v>461.6086357968591</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K41" t="n">
-        <v>623.3705248694829</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L41" t="n">
-        <v>930.1987924305109</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M41" t="n">
-        <v>1182.949430376432</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N41" t="n">
-        <v>1441.658430280402</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O41" t="n">
-        <v>1680.549221960971</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P41" t="n">
-        <v>1870.464080378659</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q41" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R41" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="V41" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="W41" t="n">
-        <v>2030.592632038686</v>
+        <v>1695.493978699958</v>
       </c>
       <c r="X41" t="n">
-        <v>2030.592632038686</v>
+        <v>1695.493978699958</v>
       </c>
       <c r="Y41" t="n">
-        <v>1696.328250521409</v>
+        <v>1695.493978699958</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168688</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3666359362611</v>
+        <v>436.3666359362612</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8738199285891</v>
+        <v>315.8738199285892</v>
       </c>
       <c r="F42" t="n">
         <v>206.9139401110937</v>
@@ -7487,25 +7487,25 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I42" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J42" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K42" t="n">
-        <v>203.6482919122559</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L42" t="n">
-        <v>376.4225046593969</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M42" t="n">
-        <v>623.1994819849131</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N42" t="n">
-        <v>844.0376253465863</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O42" t="n">
-        <v>1037.06236523374</v>
+        <v>1392.544562370732</v>
       </c>
       <c r="P42" t="n">
         <v>1539.634041663315</v>
@@ -7514,7 +7514,7 @@
         <v>2023.712345712491</v>
       </c>
       <c r="R42" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S42" t="n">
         <v>1942.531936429008</v>
@@ -7532,10 +7532,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.6557464761277</v>
+        <v>582.2892539004441</v>
       </c>
       <c r="C43" t="n">
-        <v>602.4990426844057</v>
+        <v>411.1958814621606</v>
       </c>
       <c r="D43" t="n">
-        <v>602.4990426844057</v>
+        <v>251.7012367850706</v>
       </c>
       <c r="E43" t="n">
-        <v>602.4990426844057</v>
+        <v>90.79042165339013</v>
       </c>
       <c r="F43" t="n">
-        <v>437.867916794997</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="G43" t="n">
-        <v>271.5170391602923</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H43" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I43" t="n">
         <v>40.61185264077371</v>
@@ -7572,19 +7572,19 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K43" t="n">
-        <v>305.5532344980055</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L43" t="n">
-        <v>696.5221620699629</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0167332492081</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N43" t="n">
-        <v>1194.766367349738</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O43" t="n">
-        <v>1578.938985181068</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P43" t="n">
         <v>1891.241525240598</v>
@@ -7593,28 +7593,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S43" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T43" t="n">
-        <v>1750.059945506211</v>
+        <v>1794.887268621601</v>
       </c>
       <c r="U43" t="n">
-        <v>1467.310862421776</v>
+        <v>1512.138185537166</v>
       </c>
       <c r="V43" t="n">
-        <v>1193.425117361298</v>
+        <v>1512.138185537166</v>
       </c>
       <c r="W43" t="n">
-        <v>914.355452870172</v>
+        <v>1233.06852104604</v>
       </c>
       <c r="X43" t="n">
-        <v>914.355452870172</v>
+        <v>994.7246589057238</v>
       </c>
       <c r="Y43" t="n">
-        <v>914.355452870172</v>
+        <v>769.9889602944885</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>435.0310806264075</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="C44" t="n">
-        <v>435.0310806264075</v>
+        <v>1620.468041351956</v>
       </c>
       <c r="D44" t="n">
-        <v>435.0310806264075</v>
+        <v>1216.004111445016</v>
       </c>
       <c r="E44" t="n">
-        <v>40.61185264077371</v>
+        <v>801.6638959619131</v>
       </c>
       <c r="F44" t="n">
-        <v>40.61185264077371</v>
+        <v>380.6334839156007</v>
       </c>
       <c r="G44" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H44" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I44" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J44" t="n">
-        <v>134.83280890913</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K44" t="n">
-        <v>296.5946979817538</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L44" t="n">
-        <v>799.1663744113285</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M44" t="n">
         <v>1055.953763300291</v>
@@ -7687,13 +7687,13 @@
         <v>2030.592632038686</v>
       </c>
       <c r="W44" t="n">
-        <v>1646.832331173854</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="X44" t="n">
-        <v>1246.188933342807</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="Y44" t="n">
-        <v>845.252260290897</v>
+        <v>2030.592632038686</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C45" t="n">
-        <v>553.2637937168689</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D45" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E45" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F45" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G45" t="n">
         <v>100.9967633533972</v>
@@ -7724,34 +7724,34 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I45" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J45" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K45" t="n">
-        <v>203.6482919122559</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L45" t="n">
-        <v>376.4225046593969</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M45" t="n">
-        <v>585.881393311935</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N45" t="n">
-        <v>1088.45306974151</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O45" t="n">
-        <v>1443.032522237515</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P45" t="n">
-        <v>1945.604198667089</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R45" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S45" t="n">
         <v>1942.531936429008</v>
@@ -7769,10 +7769,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X45" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>933.0870597997791</v>
+        <v>929.366749042051</v>
       </c>
       <c r="C46" t="n">
-        <v>761.9936873614956</v>
+        <v>758.2733766037675</v>
       </c>
       <c r="D46" t="n">
-        <v>602.4990426844057</v>
+        <v>598.7787319266774</v>
       </c>
       <c r="E46" t="n">
-        <v>602.4990426844057</v>
+        <v>437.867916794997</v>
       </c>
       <c r="F46" t="n">
         <v>437.867916794997</v>
@@ -7806,22 +7806,22 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J46" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K46" t="n">
-        <v>102.7226357797103</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L46" t="n">
-        <v>493.6915633516677</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M46" t="n">
-        <v>921.1524840451984</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N46" t="n">
-        <v>1336.902118145729</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O46" t="n">
-        <v>1578.938985181068</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P46" t="n">
         <v>1891.241525240598</v>
@@ -7839,19 +7839,19 @@
         <v>2030.592632038686</v>
       </c>
       <c r="U46" t="n">
-        <v>1898.477874356663</v>
+        <v>1908.365727128016</v>
       </c>
       <c r="V46" t="n">
-        <v>1624.592129296185</v>
+        <v>1634.479982067538</v>
       </c>
       <c r="W46" t="n">
-        <v>1345.522464805059</v>
+        <v>1355.410317576412</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.522464805059</v>
+        <v>1117.066455436095</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.786766193823</v>
+        <v>1117.066455436095</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.10046808443771</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K2" t="n">
-        <v>98.28281912965761</v>
+        <v>97.91326642434689</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7993,7 +7993,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>102.3362050822236</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>102.7957927373246</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>62.33982285019048</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>66.52835575112977</v>
       </c>
       <c r="P3" t="n">
-        <v>63.03651175393351</v>
+        <v>63.40606445924423</v>
       </c>
       <c r="Q3" t="n">
         <v>65.83904796127921</v>
@@ -8139,22 +8139,22 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K4" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L4" t="n">
-        <v>63.40517064503127</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>65.41137195522053</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N4" t="n">
         <v>60.85907496485993</v>
       </c>
       <c r="O4" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>64.92627109634527</v>
       </c>
       <c r="Q4" t="n">
         <v>61.35952565992557</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>104.2622748139746</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8236,10 +8236,10 @@
         <v>102.7957927373246</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.81068115028181</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>62.33982285019048</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>63.03651175393351</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.83904796127921</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>67.77707585653516</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L7" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
         <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
-        <v>64.8517748241261</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
-        <v>64.92627109634527</v>
+        <v>64.55671839103454</v>
       </c>
       <c r="Q7" t="n">
         <v>70.50595511636605</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.47002078974843</v>
+        <v>82.10046808443771</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>102.4366539134859</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
@@ -8470,13 +8470,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>102.4262400320139</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>99.18023385559253</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>66.71071319485792</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>61.97027014487976</v>
       </c>
       <c r="O9" t="n">
-        <v>66.52835575112977</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8616,7 +8616,7 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>54.62829389390151</v>
+        <v>63.40517064503127</v>
       </c>
       <c r="M10" t="n">
         <v>65.41137195522053</v>
@@ -8625,10 +8625,10 @@
         <v>60.85907496485993</v>
       </c>
       <c r="O10" t="n">
-        <v>64.85177482412608</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P10" t="n">
-        <v>64.92627109634527</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
         <v>61.35952565992557</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.1243703528099</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.734978092198311</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>159.1771573936442</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>312.6736732751723</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>45.74948466659998</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8859,16 +8859,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>236.0522756093789</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>247.5108008918838</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>92.12437035281022</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>38.90450930214678</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>383.2964538665514</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>171.2410239957638</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>284.5793263312135</v>
+        <v>284.5793263312136</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>7.299859319864566</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>313.666178149095</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9102,7 +9102,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>54.30340307655673</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9166,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>92.12437035281022</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>92.12437035281036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>3.734978092198318</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>333.1287511943775</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>25.77885405791577</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>359.0729264010013</v>
+        <v>61.77996500843926</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9330,19 +9330,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>314.7728934861835</v>
+        <v>291.7463586713684</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>252.3444833168219</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.8564798518762</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>187.2715043376033</v>
+        <v>61.77996500843932</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>284.5793263312135</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,13 +9570,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>126.1587747679381</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>164.1969039179974</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>23.63107687822142</v>
+        <v>130.1965864188035</v>
       </c>
       <c r="M23" t="n">
-        <v>357.8080822997405</v>
+        <v>357.8080822997404</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>351.7895348673678</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>497.4144729382456</v>
+        <v>17.22800014968138</v>
       </c>
       <c r="L24" t="n">
-        <v>47.26417686043013</v>
+        <v>438.592350177296</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>95.27874900188937</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>381.4391591779618</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>3.734978092198318</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>61.77996500843938</v>
       </c>
       <c r="L27" t="n">
-        <v>438.5923501772961</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>279.3881814759989</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>297.0768902257154</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>351.7895348673678</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>29.64962431059365</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>497.4144729382455</v>
+        <v>134.6077841382983</v>
       </c>
       <c r="L30" t="n">
-        <v>309.4243581867477</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>88.43904409833092</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>351.7895348673678</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>359.7262171264817</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>421.2785666716924</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>61.77996500843938</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>134.6077841382982</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>92.1243703528101</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>121.2972019731344</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>296.0735230071075</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>284.5793263312135</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>45.74948466659998</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,13 +10755,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>236.0522756093786</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.12437035281039</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>293.9225115766367</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>161.0364066554435</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1287511943776</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>312.6736732751724</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L40" t="n">
-        <v>92.76477480722826</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>92.12437035281016</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>37.69503906361419</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6077841382982</v>
       </c>
       <c r="P42" t="n">
-        <v>359.0729264010013</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11220,13 +11220,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>139.2214495827866</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>289.8449853715442</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.07752620509234</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>284.5793263312136</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1865783927784</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>359.0729264010013</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11469,10 +11469,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>174.6858672957073</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>344.1158385007506</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I11" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3310661988683</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>264.7032693961552</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>161.6795154479708</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>259.010398123412</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>99.78873029967701</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I14" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U14" t="n">
         <v>254.3310661988683</v>
       </c>
       <c r="V14" t="n">
-        <v>104.6927163382797</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>108.8893798471155</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.0995788497493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.144415009698207</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>148.9950936339248</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.111982508193336</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>261.5303646237539</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>262.3092282348404</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H20" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.68920227461291</v>
+        <v>18.60429817745492</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U20" t="n">
         <v>254.3310661988683</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1938633459013</v>
+        <v>111.7294932592773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.95123724106207</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>360.8927796952097</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>45.72110812972926</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>287.4678909265675</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>211.2939531812519</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S25" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>86.81776470590006</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>72.90727438728013</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>261.0155309479127</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>287.4678909265675</v>
       </c>
       <c r="I26" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>271.73135049015</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.1069777147549</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S28" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.5553695356908</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6557434633873</v>
+        <v>162.2719350953267</v>
       </c>
       <c r="H29" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>75.34999775989417</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3310661988683</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.68290212593912</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>69.60349107962577</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.2763496246713</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>151.5593637108564</v>
       </c>
       <c r="H32" t="n">
         <v>287.4678909265675</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U32" t="n">
         <v>254.3310661988683</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I34" t="n">
         <v>88.40227130842214</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>11.24027076818572</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9215922535905</v>
+        <v>36.04534257974706</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>8.951593617165784</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.2939531812519</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>219.5815905371009</v>
+        <v>221.5444230240943</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.6149307763866</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>204.3661089659419</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>144.0223907179167</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I38" t="n">
         <v>8.951593617165784</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.2939531812519</v>
       </c>
       <c r="U38" t="n">
-        <v>188.2213314893243</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6083465466486</v>
+        <v>168.0580657684995</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>287.4678909265675</v>
       </c>
       <c r="I41" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.2939531812519</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>136.8642333254553</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>66.00556861928669</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>46.46730196009592</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.3080313080244</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S43" t="n">
         <v>169.0085450628485</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>19.72177762249476</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6557434633873</v>
+        <v>74.98592211847438</v>
       </c>
       <c r="H44" t="n">
         <v>287.4678909265675</v>
       </c>
       <c r="I44" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U46" t="n">
-        <v>149.1279821483876</v>
+        <v>158.9169563920271</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>428378.2160895925</v>
+        <v>428378.2160895926</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>428378.2160895927</v>
+        <v>428378.2160895926</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>484861.836446694</v>
+        <v>484861.8364466938</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>484861.8364466939</v>
+        <v>484861.8364466938</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>484861.8364466939</v>
+        <v>484861.836446694</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>428378.2160895925</v>
+        <v>428378.2160895927</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>428378.2160895926</v>
+        <v>428378.2160895927</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428378.2160895926</v>
+        <v>428378.2160895927</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504397.2309947853</v>
+        <v>504397.2309947854</v>
       </c>
       <c r="C2" t="n">
-        <v>504397.2309947855</v>
+        <v>504397.2309947852</v>
       </c>
       <c r="D2" t="n">
-        <v>504397.2309947854</v>
+        <v>504397.2309947856</v>
       </c>
       <c r="E2" t="n">
         <v>311133.5002714848</v>
       </c>
       <c r="F2" t="n">
-        <v>311133.500271485</v>
+        <v>311133.5002714847</v>
       </c>
       <c r="G2" t="n">
-        <v>311133.500271485</v>
+        <v>311133.5002714851</v>
       </c>
       <c r="H2" t="n">
-        <v>311133.5002714847</v>
+        <v>311133.5002714851</v>
       </c>
       <c r="I2" t="n">
-        <v>343994.8431752484</v>
+        <v>343994.8431752485</v>
       </c>
       <c r="J2" t="n">
-        <v>343994.8431752484</v>
+        <v>343994.8431752481</v>
       </c>
       <c r="K2" t="n">
         <v>343994.8431752484</v>
@@ -26346,16 +26346,16 @@
         <v>343994.8431752484</v>
       </c>
       <c r="M2" t="n">
-        <v>311133.5002714851</v>
+        <v>311133.500271485</v>
       </c>
       <c r="N2" t="n">
         <v>311133.5002714851</v>
       </c>
       <c r="O2" t="n">
-        <v>311133.500271485</v>
+        <v>311133.5002714848</v>
       </c>
       <c r="P2" t="n">
-        <v>311133.500271485</v>
+        <v>311133.5002714848</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28044.9857051367</v>
+        <v>28044.98570513666</v>
       </c>
       <c r="J3" t="n">
-        <v>2393.108388700919</v>
+        <v>2393.108388700701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97946.67404144014</v>
+        <v>97946.67404144017</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>348960.5275260956</v>
       </c>
       <c r="E4" t="n">
-        <v>37392.40748839676</v>
+        <v>37392.40748839678</v>
       </c>
       <c r="F4" t="n">
-        <v>37392.40748839676</v>
+        <v>37392.40748839677</v>
       </c>
       <c r="G4" t="n">
-        <v>37392.40748839678</v>
+        <v>37392.40748839677</v>
       </c>
       <c r="H4" t="n">
-        <v>37392.40748839676</v>
+        <v>37392.40748839677</v>
       </c>
       <c r="I4" t="n">
         <v>52599.23237548576</v>
@@ -26450,16 +26450,16 @@
         <v>52599.23237548575</v>
       </c>
       <c r="M4" t="n">
-        <v>37392.40748839676</v>
+        <v>37392.40748839677</v>
       </c>
       <c r="N4" t="n">
-        <v>37392.40748839678</v>
+        <v>37392.40748839677</v>
       </c>
       <c r="O4" t="n">
         <v>37392.40748839677</v>
       </c>
       <c r="P4" t="n">
-        <v>37392.40748839678</v>
+        <v>37392.40748839677</v>
       </c>
     </row>
     <row r="5">
@@ -26490,10 +26490,10 @@
         <v>41630.56475662727</v>
       </c>
       <c r="I5" t="n">
-        <v>48042.75157478872</v>
+        <v>48042.75157478871</v>
       </c>
       <c r="J5" t="n">
-        <v>48042.75157478872</v>
+        <v>48042.75157478871</v>
       </c>
       <c r="K5" t="n">
         <v>48042.75157478871</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118187.8216790074</v>
+        <v>118186.0855906016</v>
       </c>
       <c r="C6" t="n">
-        <v>121253.0005577383</v>
+        <v>121251.2644693321</v>
       </c>
       <c r="D6" t="n">
-        <v>121253.0005577382</v>
+        <v>121251.2644693325</v>
       </c>
       <c r="E6" t="n">
-        <v>-313477.9371058371</v>
+        <v>-314103.1045836731</v>
       </c>
       <c r="F6" t="n">
-        <v>232110.528026461</v>
+        <v>231485.3605486248</v>
       </c>
       <c r="G6" t="n">
-        <v>232110.528026461</v>
+        <v>231485.3605486252</v>
       </c>
       <c r="H6" t="n">
-        <v>232110.5280264607</v>
+        <v>231485.3605486252</v>
       </c>
       <c r="I6" t="n">
-        <v>215307.8735198372</v>
+        <v>214788.7103739491</v>
       </c>
       <c r="J6" t="n">
-        <v>240959.750836273</v>
+        <v>240440.5876903847</v>
       </c>
       <c r="K6" t="n">
-        <v>243352.8592249739</v>
+        <v>242833.6960790856</v>
       </c>
       <c r="L6" t="n">
-        <v>243352.8592249739</v>
+        <v>242833.6960790856</v>
       </c>
       <c r="M6" t="n">
-        <v>134163.8539850209</v>
+        <v>133538.6865071849</v>
       </c>
       <c r="N6" t="n">
-        <v>232110.5280264611</v>
+        <v>231485.3605486252</v>
       </c>
       <c r="O6" t="n">
-        <v>232110.528026461</v>
+        <v>231485.3605486248</v>
       </c>
       <c r="P6" t="n">
-        <v>232110.5280264609</v>
+        <v>231485.3605486249</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>493.8328784238189</v>
+        <v>493.8328784238188</v>
       </c>
       <c r="F3" t="n">
         <v>493.8328784238188</v>
@@ -26810,10 +26810,10 @@
         <v>507.6481580096714</v>
       </c>
       <c r="I4" t="n">
-        <v>613.11175699259</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="J4" t="n">
-        <v>613.11175699259</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="K4" t="n">
         <v>613.1117569925899</v>
@@ -26825,7 +26825,7 @@
         <v>507.6481580096714</v>
       </c>
       <c r="N4" t="n">
-        <v>507.6481580096715</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="O4" t="n">
         <v>507.6481580096714</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>493.8328784238189</v>
+        <v>493.8328784238188</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.4635989829186</v>
+        <v>105.4635989829185</v>
       </c>
       <c r="J4" t="n">
-        <v>9.146429456440501</v>
+        <v>9.14642945643967</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.0381295703124</v>
+        <v>393.0381295703125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,10 +27460,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5086910821033</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>107.6720111375687</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -27472,7 +27472,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>97.76368033039377</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>148.6020157184214</v>
+        <v>149.6922701096291</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>186.230873296723</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -27523,7 +27523,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>165.4162925860556</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>176.6762798736634</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>160.2360092574602</v>
       </c>
       <c r="D4" t="n">
-        <v>148.7532687738786</v>
+        <v>149.8435231650863</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8383851740741</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>157.5217120984792</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.7535728527903</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>107.6720111375687</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -27712,7 +27712,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>60.89331137820062</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>11.39467600952174</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -27763,7 +27763,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.7517649745755</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -27776,19 +27776,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>160.2360092574602</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>150.1552775239232</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,7 +27824,7 @@
         <v>75.27356168491386</v>
       </c>
       <c r="S7" t="n">
-        <v>176.4716753736561</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>262.0004581534328</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27842,7 +27842,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>214.4321665598902</v>
       </c>
     </row>
     <row r="8">
@@ -27952,7 +27952,7 @@
         <v>60.89331137820062</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>11.39467600952174</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>97.76368033039377</v>
       </c>
       <c r="T9" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>203.0446615158017</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>107.1264103714843</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>75.27356168491386</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>175.3814209824483</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.0068221766244</v>
       </c>
       <c r="U10" t="n">
-        <v>270.8237365228966</v>
+        <v>271.9139909141043</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>226.8139940624729</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -31776,10 +31776,10 @@
         <v>354.2345128818415</v>
       </c>
       <c r="O11" t="n">
-        <v>334.4936056061557</v>
+        <v>334.4936056061556</v>
       </c>
       <c r="P11" t="n">
-        <v>285.4825536017817</v>
+        <v>285.4825536017816</v>
       </c>
       <c r="Q11" t="n">
         <v>214.385508542272</v>
@@ -31788,7 +31788,7 @@
         <v>124.7064504494079</v>
       </c>
       <c r="S11" t="n">
-        <v>45.23906217922724</v>
+        <v>45.23906217922723</v>
       </c>
       <c r="T11" t="n">
         <v>8.690466031357856</v>
@@ -31837,7 +31837,7 @@
         <v>10.25867922914386</v>
       </c>
       <c r="I12" t="n">
-        <v>36.57158580780169</v>
+        <v>36.57158580780168</v>
       </c>
       <c r="J12" t="n">
         <v>100.3552267370517</v>
@@ -31858,22 +31858,22 @@
         <v>252.7259637344991</v>
       </c>
       <c r="P12" t="n">
-        <v>202.8348666114739</v>
+        <v>202.8348666114738</v>
       </c>
       <c r="Q12" t="n">
         <v>135.5897367325172</v>
       </c>
       <c r="R12" t="n">
-        <v>65.94998327327909</v>
+        <v>65.94998327327907</v>
       </c>
       <c r="S12" t="n">
         <v>19.7300211332535</v>
       </c>
       <c r="T12" t="n">
-        <v>4.281437879919712</v>
+        <v>4.281437879919711</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06988201109771025</v>
+        <v>0.06988201109771024</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8905183053544274</v>
+        <v>0.8905183053544273</v>
       </c>
       <c r="H13" t="n">
-        <v>7.917517296696643</v>
+        <v>7.917517296696642</v>
       </c>
       <c r="I13" t="n">
         <v>26.78031412829497</v>
       </c>
       <c r="J13" t="n">
-        <v>62.95964418855802</v>
+        <v>62.95964418855801</v>
       </c>
       <c r="K13" t="n">
         <v>103.4620358402689</v>
@@ -31940,10 +31940,10 @@
         <v>107.7041412221391</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.56876464199665</v>
+        <v>74.56876464199664</v>
       </c>
       <c r="R13" t="n">
-        <v>40.04094125711816</v>
+        <v>40.04094125711815</v>
       </c>
       <c r="S13" t="n">
         <v>15.51930537604033</v>
@@ -34698,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>9.146429456440488</v>
+      </c>
+      <c r="K2" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K2" t="n">
-        <v>9.146429456440488</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>9.146429456440488</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="P3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.776876751129763</v>
       </c>
       <c r="Q3" t="n">
         <v>9.146429456440488</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>8.776876751129763</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.146429456440488</v>
       </c>
       <c r="N4" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>9.146429456440488</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>9.146429456440488</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.776876751129763</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="Q7" t="n">
         <v>9.146429456440488</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="K8" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.776876751129763</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="M10" t="n">
         <v>9.146429456440488</v>
@@ -35345,10 +35345,10 @@
         <v>9.146429456440488</v>
       </c>
       <c r="O10" t="n">
-        <v>8.776876751129761</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>425.2492759152378</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K11" t="n">
         <v>163.3958475481049</v>
@@ -35418,22 +35418,22 @@
         <v>217.8031726381273</v>
       </c>
       <c r="M11" t="n">
-        <v>255.3036746928496</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N11" t="n">
-        <v>261.3222221252222</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O11" t="n">
         <v>241.3038299803725</v>
       </c>
       <c r="P11" t="n">
-        <v>191.8331903208975</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.4760744959299</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R11" t="n">
-        <v>37.3943076346844</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J12" t="n">
         <v>295.1156889215298</v>
@@ -35500,19 +35500,19 @@
         <v>211.5746350025638</v>
       </c>
       <c r="N12" t="n">
-        <v>382.2459890721021</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O12" t="n">
-        <v>507.6481580096714</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P12" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752701</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R12" t="n">
-        <v>95.80808363957192</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.18444156755854</v>
+        <v>11.52649850560259</v>
       </c>
       <c r="K13" t="n">
-        <v>259.5754981859639</v>
+        <v>51.21166628120207</v>
       </c>
       <c r="L13" t="n">
         <v>394.9181086585428</v>
@@ -35579,16 +35579,16 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N13" t="n">
-        <v>84.56094207368135</v>
+        <v>419.9491253540708</v>
       </c>
       <c r="O13" t="n">
-        <v>305.8480921877521</v>
+        <v>388.0531493245757</v>
       </c>
       <c r="P13" t="n">
-        <v>315.4571111712424</v>
+        <v>299.4351004741181</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.7586937354419</v>
+        <v>13.20923898207107</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.17268309934974</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K14" t="n">
-        <v>163.3958475481049</v>
+        <v>255.5202179009151</v>
       </c>
       <c r="L14" t="n">
         <v>217.8031726381273</v>
@@ -35658,7 +35658,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N14" t="n">
-        <v>300.2267314273689</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O14" t="n">
         <v>241.3038299803725</v>
@@ -35667,7 +35667,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q14" t="n">
-        <v>507.6481580096714</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R14" t="n">
         <v>37.39430763468438</v>
@@ -35725,10 +35725,10 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J15" t="n">
-        <v>295.1156889215298</v>
+        <v>48.98598793705172</v>
       </c>
       <c r="K15" t="n">
-        <v>286.9383080501082</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L15" t="n">
         <v>174.5194068152939</v>
@@ -35743,10 +35743,10 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P15" t="n">
-        <v>148.5752316086701</v>
+        <v>155.8750909285347</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R15" t="n">
         <v>95.80808363957189</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K16" t="n">
-        <v>259.5754981859639</v>
+        <v>51.21166628120207</v>
       </c>
       <c r="L16" t="n">
-        <v>391.4336693985236</v>
+        <v>394.9181086585428</v>
       </c>
       <c r="M16" t="n">
-        <v>83.32784967600531</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N16" t="n">
         <v>419.9491253540708</v>
@@ -35822,7 +35822,7 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P16" t="n">
-        <v>315.4571111712424</v>
+        <v>106.227702658791</v>
       </c>
       <c r="Q16" t="n">
         <v>140.7586937354419</v>
@@ -35886,7 +35886,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K17" t="n">
-        <v>163.3958475481049</v>
+        <v>255.5202179009151</v>
       </c>
       <c r="L17" t="n">
         <v>217.8031726381273</v>
@@ -35901,7 +35901,7 @@
         <v>241.3038299803725</v>
       </c>
       <c r="P17" t="n">
-        <v>283.9575606737078</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q17" t="n">
         <v>124.35170414312</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K18" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L18" t="n">
-        <v>507.6481580096714</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M18" t="n">
         <v>211.5746350025638</v>
@@ -35977,13 +35977,13 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O18" t="n">
-        <v>220.7533387924148</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P18" t="n">
-        <v>507.6481580096714</v>
+        <v>210.3551966171094</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R18" t="n">
         <v>95.80808363957189</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K19" t="n">
         <v>259.5754981859639</v>
@@ -36050,19 +36050,19 @@
         <v>394.9181086585428</v>
       </c>
       <c r="M19" t="n">
-        <v>83.32784967600531</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N19" t="n">
         <v>419.9491253540708</v>
       </c>
       <c r="O19" t="n">
-        <v>384.5687100645566</v>
+        <v>361.5421752497415</v>
       </c>
       <c r="P19" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.7586937354419</v>
+        <v>13.20923898207107</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.17268309934974</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K20" t="n">
         <v>163.3958475481049</v>
@@ -36129,7 +36129,7 @@
         <v>217.8031726381273</v>
       </c>
       <c r="M20" t="n">
-        <v>507.6481580096714</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N20" t="n">
         <v>261.3222221252221</v>
@@ -36141,10 +36141,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q20" t="n">
-        <v>294.2081839949961</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R20" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>295.1156889215298</v>
       </c>
       <c r="K21" t="n">
-        <v>302.9687883919477</v>
+        <v>177.4772490627837</v>
       </c>
       <c r="L21" t="n">
         <v>174.5194068152939</v>
@@ -36211,7 +36211,7 @@
         <v>211.5746350025638</v>
       </c>
       <c r="N21" t="n">
-        <v>507.6481580096714</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O21" t="n">
         <v>194.9744847344991</v>
@@ -36220,7 +36220,7 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R21" t="n">
         <v>95.80808363957189</v>
@@ -36281,7 +36281,7 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K22" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L22" t="n">
         <v>394.9181086585428</v>
@@ -36290,13 +36290,13 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N22" t="n">
-        <v>210.7197168416194</v>
+        <v>419.9491253540708</v>
       </c>
       <c r="O22" t="n">
-        <v>388.0531493245757</v>
+        <v>233.9927204963706</v>
       </c>
       <c r="P22" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q22" t="n">
         <v>140.7586937354419</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K23" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L23" t="n">
-        <v>241.4342495163487</v>
+        <v>347.9997590569307</v>
       </c>
       <c r="M23" t="n">
-        <v>613.11175699259</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="N23" t="n">
-        <v>261.3222221252221</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="O23" t="n">
         <v>241.3038299803725</v>
@@ -36381,7 +36381,7 @@
         <v>124.35170414312</v>
       </c>
       <c r="R23" t="n">
-        <v>165.6727592267461</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>295.1156889215298</v>
       </c>
       <c r="K24" t="n">
-        <v>613.11175699259</v>
+        <v>132.9252842040258</v>
       </c>
       <c r="L24" t="n">
-        <v>221.783583675724</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="M24" t="n">
         <v>211.5746350025638</v>
@@ -36460,7 +36460,7 @@
         <v>78.8971182276785</v>
       </c>
       <c r="R24" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,16 +36609,16 @@
         <v>261.3222221252221</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3038299803725</v>
+        <v>336.5825789822619</v>
       </c>
       <c r="P26" t="n">
         <v>191.8331903208974</v>
       </c>
       <c r="Q26" t="n">
-        <v>505.7908633210818</v>
+        <v>538.7905659112539</v>
       </c>
       <c r="R26" t="n">
-        <v>165.6727592267461</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K27" t="n">
-        <v>115.6972840543444</v>
+        <v>177.4772490627838</v>
       </c>
       <c r="L27" t="n">
-        <v>613.11175699259</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M27" t="n">
-        <v>490.9628164785627</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N27" t="n">
         <v>223.0688316784579</v>
@@ -36694,7 +36694,7 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R27" t="n">
         <v>95.80808363957189</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>392.2495733250652</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K29" t="n">
         <v>163.3958475481049</v>
@@ -36843,7 +36843,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N29" t="n">
-        <v>261.3222221252221</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="O29" t="n">
         <v>241.3038299803725</v>
@@ -36852,7 +36852,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q29" t="n">
-        <v>538.7905659112539</v>
+        <v>154.0013284537136</v>
       </c>
       <c r="R29" t="n">
         <v>165.6727592267461</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J30" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K30" t="n">
-        <v>613.1117569925899</v>
+        <v>250.3050681926427</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9437650020416</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M30" t="n">
         <v>211.5746350025638</v>
@@ -36931,7 +36931,7 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R30" t="n">
         <v>6.949784167873666</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.17268309934974</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K32" t="n">
-        <v>163.3958475481049</v>
+        <v>251.8348916464358</v>
       </c>
       <c r="L32" t="n">
         <v>217.8031726381273</v>
@@ -37080,19 +37080,19 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N32" t="n">
+        <v>261.3222221252221</v>
+      </c>
+      <c r="O32" t="n">
+        <v>241.3038299803725</v>
+      </c>
+      <c r="P32" t="n">
         <v>613.1117569925899</v>
-      </c>
-      <c r="O32" t="n">
-        <v>601.0300471068542</v>
-      </c>
-      <c r="P32" t="n">
-        <v>191.8331903208974</v>
       </c>
       <c r="Q32" t="n">
         <v>124.35170414312</v>
       </c>
       <c r="R32" t="n">
-        <v>165.6727592267461</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J33" t="n">
         <v>295.1156889215298</v>
       </c>
       <c r="K33" t="n">
-        <v>177.4772490627838</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L33" t="n">
         <v>174.5194068152939</v>
@@ -37162,7 +37162,7 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O33" t="n">
-        <v>194.9744847344991</v>
+        <v>329.5822688727973</v>
       </c>
       <c r="P33" t="n">
         <v>148.5752316086701</v>
@@ -37171,7 +37171,7 @@
         <v>488.967983888056</v>
       </c>
       <c r="R33" t="n">
-        <v>95.80808363957189</v>
+        <v>6.949784167873666</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>425.2492759152378</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K35" t="n">
         <v>163.3958475481049</v>
@@ -37317,7 +37317,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N35" t="n">
-        <v>353.4465924780322</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O35" t="n">
         <v>241.3038299803725</v>
@@ -37329,7 +37329,7 @@
         <v>124.35170414312</v>
       </c>
       <c r="R35" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J36" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K36" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L36" t="n">
-        <v>295.8166087884283</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M36" t="n">
-        <v>507.6481580096714</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N36" t="n">
-        <v>507.6481580096714</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O36" t="n">
         <v>194.9744847344991</v>
       </c>
       <c r="P36" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752701</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R36" t="n">
         <v>95.80808363957189</v>
@@ -37466,7 +37466,7 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K37" t="n">
-        <v>259.5754981859639</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L37" t="n">
         <v>394.9181086585428</v>
@@ -37475,13 +37475,13 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N37" t="n">
-        <v>320.6132176830599</v>
+        <v>419.9491253540708</v>
       </c>
       <c r="O37" t="n">
-        <v>69.79581657837315</v>
+        <v>388.0531493245757</v>
       </c>
       <c r="P37" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q37" t="n">
         <v>140.7586937354419</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K38" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L38" t="n">
-        <v>309.9275429909376</v>
+        <v>217.8031726381273</v>
       </c>
       <c r="M38" t="n">
         <v>255.3036746928495</v>
@@ -37563,10 +37563,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q38" t="n">
-        <v>124.35170414312</v>
+        <v>418.2742157197566</v>
       </c>
       <c r="R38" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J39" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K39" t="n">
-        <v>276.7336907097879</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L39" t="n">
-        <v>507.6481580096715</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M39" t="n">
         <v>211.5746350025638</v>
@@ -37636,16 +37636,16 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O39" t="n">
-        <v>507.6481580096715</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P39" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R39" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K40" t="n">
-        <v>259.5754981859639</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L40" t="n">
-        <v>170.5322660566568</v>
+        <v>394.9181086585428</v>
       </c>
       <c r="M40" t="n">
         <v>431.7787077712432</v>
@@ -37718,10 +37718,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P40" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>425.2492759152378</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K41" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L41" t="n">
-        <v>309.9275429909374</v>
+        <v>217.8031726381273</v>
       </c>
       <c r="M41" t="n">
         <v>255.3036746928495</v>
@@ -37803,7 +37803,7 @@
         <v>124.35170414312</v>
       </c>
       <c r="R41" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J42" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K42" t="n">
         <v>115.6972840543444</v>
@@ -37867,16 +37867,16 @@
         <v>174.5194068152939</v>
       </c>
       <c r="M42" t="n">
-        <v>249.269674066178</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N42" t="n">
         <v>223.0688316784579</v>
       </c>
       <c r="O42" t="n">
-        <v>194.9744847344991</v>
+        <v>329.5822688727973</v>
       </c>
       <c r="P42" t="n">
-        <v>507.6481580096714</v>
+        <v>148.5752316086701</v>
       </c>
       <c r="Q42" t="n">
         <v>488.967983888056</v>
@@ -37940,13 +37940,13 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K43" t="n">
-        <v>190.4331158639887</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L43" t="n">
         <v>394.9181086585428</v>
       </c>
       <c r="M43" t="n">
-        <v>83.32784967600531</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N43" t="n">
         <v>419.9491253540708</v>
@@ -37955,7 +37955,7 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P43" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q43" t="n">
         <v>140.7586937354419</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.17268309934974</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K44" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L44" t="n">
-        <v>507.6481580096714</v>
+        <v>217.8031726381273</v>
       </c>
       <c r="M44" t="n">
-        <v>259.3812008979419</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N44" t="n">
         <v>261.3222221252221</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J45" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K45" t="n">
         <v>115.6972840543444</v>
@@ -38107,19 +38107,19 @@
         <v>211.5746350025638</v>
       </c>
       <c r="N45" t="n">
-        <v>507.6481580096714</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O45" t="n">
-        <v>358.1610631272775</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P45" t="n">
-        <v>507.6481580096714</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R45" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K46" t="n">
-        <v>51.21166628120207</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L46" t="n">
         <v>394.9181086585428</v>
@@ -38189,10 +38189,10 @@
         <v>419.9491253540708</v>
       </c>
       <c r="O46" t="n">
-        <v>244.4816838740804</v>
+        <v>388.0531493245757</v>
       </c>
       <c r="P46" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q46" t="n">
         <v>140.7586937354419</v>
